--- a/IS447/System/Data/Pharmacy Dept/GEH TTO Data/GEH TTO TAT 2021 June.xlsx
+++ b/IS447/System/Data/Pharmacy Dept/GEH TTO Data/GEH TTO TAT 2021 June.xlsx
@@ -1,29 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\3. Operational\3c. TTO Statistics\TTO TAT DATA\Raw Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\shaza\IS447---Smart-Healthcare\IS447\System\Data\Pharmacy Dept\GEH TTO Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA330E87-5491-48BD-B29A-4F3F339D58D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="23040" windowHeight="9320"/>
+    <workbookView xWindow="28680" yWindow="-90" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="query" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="query" localSheetId="0" hidden="1">query!$A$1:$Y$360</definedName>
+    <definedName name="query" localSheetId="0" hidden="1">Sheet1!$A$1:$Y$360</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="C:\Users\geh-l2102g006pharm\Desktop\query.iqy" keepAlive="1" name="query" type="5" refreshedVersion="5" minRefreshableVersion="3" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" odcFile="C:\Users\geh-l2102g006pharm\Desktop\query.iqy" keepAlive="1" name="query" type="5" refreshedVersion="5" minRefreshableVersion="3" saveData="1">
     <dbPr connection="Provider=Microsoft.Office.List.OLEDB.2.0;Data Source=&quot;&quot;;ApplicationName=Excel;Version=12.0.0.0" command="&lt;LIST&gt;&lt;VIEWGUID&gt;26C29C9D-C526-4891-AAE0-68BDFB571BB2&lt;/VIEWGUID&gt;&lt;LISTNAME&gt;{A31A0376-3859-47D0-A9A0-8E9A9693AF2D}&lt;/LISTNAME&gt;&lt;LISTWEB&gt;https://parkwaypantailimited-my.sharepoint.com/personal/rayhng_yeo_gleneagles_com_sg/_vti_bin&lt;/LISTWEB&gt;&lt;LISTSUBWEB&gt;&lt;/LISTSUBWEB&gt;&lt;ROOTFOLDER&gt;&lt;/ROOTFOLDER&gt;&lt;/LIST&gt;" commandType="5"/>
   </connection>
 </connections>
@@ -986,7 +999,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1556,7 +1569,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="27" formatCode="d/m/yyyy\ h:mm"/>
+      <numFmt numFmtId="164" formatCode="d/m/yyyy\ h:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -1569,20 +1582,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="27" formatCode="d/m/yyyy\ h:mm"/>
+      <numFmt numFmtId="164" formatCode="d/m/yyyy\ h:mm"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="27" formatCode="d/m/yyyy\ h:mm"/>
+      <numFmt numFmtId="164" formatCode="d/m/yyyy\ h:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="27" formatCode="d/m/yyyy\ h:mm"/>
+      <numFmt numFmtId="164" formatCode="d/m/yyyy\ h:mm"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="27" formatCode="d/m/yyyy\ h:mm"/>
+      <numFmt numFmtId="164" formatCode="d/m/yyyy\ h:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1598,7 +1611,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+      <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1614,7 +1627,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="query" backgroundRefresh="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="query" backgroundRefresh="0" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="26">
     <queryTableFields count="25">
       <queryTableField id="2" name="Date" tableColumnId="1"/>
@@ -1648,34 +1661,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_query" displayName="Table_query" ref="A1:Y360" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:Y360"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_query" displayName="Table_query" ref="A1:Y360" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:Y360" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="25">
-    <tableColumn id="1" uniqueName="Date_1" name="Date" queryTableFieldId="2" dataDxfId="24"/>
-    <tableColumn id="2" uniqueName="Case_No" name="Case Number" queryTableFieldId="3" dataDxfId="23"/>
-    <tableColumn id="3" uniqueName="Room_x005f_x0020__No" name="Room" queryTableFieldId="4" dataDxfId="22"/>
-    <tableColumn id="4" uniqueName="TTO_Type" name="TTO Type" queryTableFieldId="5" dataDxfId="21"/>
-    <tableColumn id="5" uniqueName="No_of_Items" name="No. of Items" queryTableFieldId="6" dataDxfId="20"/>
-    <tableColumn id="6" uniqueName="Time_In" name="Time In" queryTableFieldId="7" dataDxfId="19"/>
-    <tableColumn id="7" uniqueName="Time_Checked" name="Time Checked" queryTableFieldId="8" dataDxfId="18"/>
-    <tableColumn id="8" uniqueName="Pharmacist_Checked" name="Pharmacist_Checked" queryTableFieldId="9" dataDxfId="17"/>
-    <tableColumn id="9" uniqueName="Time_Reached" name="Time Reached" queryTableFieldId="10" dataDxfId="16"/>
-    <tableColumn id="10" uniqueName="Time_x005f_x0020_Dispensed" name="Time Dispensed" queryTableFieldId="17" dataDxfId="15"/>
-    <tableColumn id="11" uniqueName="Pharmacist_Dispensed" name="Pharmacist_Dispensed" queryTableFieldId="11" dataDxfId="14"/>
-    <tableColumn id="12" uniqueName="Remarks" name="Remarks" queryTableFieldId="12" dataDxfId="13"/>
-    <tableColumn id="13" uniqueName="Dispatcher" name="Dispatcher" queryTableFieldId="13" dataDxfId="12"/>
-    <tableColumn id="14" uniqueName="TTO_TAT_Calc" name="TTO_TAT_Calc" queryTableFieldId="15" dataDxfId="11"/>
-    <tableColumn id="15" uniqueName="Total_x005f_x0020_number_x005f_x0020_of_x002" name="Total number of TTO" queryTableFieldId="14" dataDxfId="10"/>
-    <tableColumn id="16" uniqueName="Status_Time_Met0" name="Status_Time_Met" queryTableFieldId="16" dataDxfId="9"/>
-    <tableColumn id="17" uniqueName="ID" name="ID" queryTableFieldId="23" dataDxfId="8"/>
-    <tableColumn id="18" uniqueName="status_CheckedTTO" name="status_CheckedTTO" queryTableFieldId="18" dataDxfId="7"/>
-    <tableColumn id="19" uniqueName="status_TTOReached" name="status_TTOReached" queryTableFieldId="19" dataDxfId="6"/>
-    <tableColumn id="20" uniqueName="status_Dispensed" name="status_Dispensed" queryTableFieldId="20" dataDxfId="5"/>
-    <tableColumn id="21" uniqueName="status_TTOIn" name="status_TTOIn" queryTableFieldId="21" dataDxfId="4"/>
-    <tableColumn id="22" uniqueName="Title" name="Title" queryTableFieldId="1" dataDxfId="3"/>
-    <tableColumn id="23" uniqueName="TTOaddon" name="TTOaddon" queryTableFieldId="22" dataDxfId="2"/>
-    <tableColumn id="24" uniqueName="FSObjType" name="Item Type" queryTableFieldId="25" dataDxfId="1"/>
-    <tableColumn id="25" uniqueName="FileDirRef" name="Path" queryTableFieldId="24" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="Date_1" name="Date" queryTableFieldId="2" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="Case_No" name="Case Number" queryTableFieldId="3" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="Room_x005f_x0020__No" name="Room" queryTableFieldId="4" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="TTO_Type" name="TTO Type" queryTableFieldId="5" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="No_of_Items" name="No. of Items" queryTableFieldId="6" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="Time_In" name="Time In" queryTableFieldId="7" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="Time_Checked" name="Time Checked" queryTableFieldId="8" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="Pharmacist_Checked" name="Pharmacist_Checked" queryTableFieldId="9" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="Time_Reached" name="Time Reached" queryTableFieldId="10" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="Time_x005f_x0020_Dispensed" name="Time Dispensed" queryTableFieldId="17" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="Pharmacist_Dispensed" name="Pharmacist_Dispensed" queryTableFieldId="11" dataDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" uniqueName="Remarks" name="Remarks" queryTableFieldId="12" dataDxfId="13"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" uniqueName="Dispatcher" name="Dispatcher" queryTableFieldId="13" dataDxfId="12"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" uniqueName="TTO_TAT_Calc" name="TTO_TAT_Calc" queryTableFieldId="15" dataDxfId="11"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" uniqueName="Total_x005f_x0020_number_x005f_x0020_of_x002" name="Total number of TTO" queryTableFieldId="14" dataDxfId="10"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" uniqueName="Status_Time_Met0" name="Status_Time_Met" queryTableFieldId="16" dataDxfId="9"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" uniqueName="ID" name="ID" queryTableFieldId="23" dataDxfId="8"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="status_CheckedTTO" name="status_CheckedTTO" queryTableFieldId="18" dataDxfId="7"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" uniqueName="status_TTOReached" name="status_TTOReached" queryTableFieldId="19" dataDxfId="6"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" uniqueName="status_Dispensed" name="status_Dispensed" queryTableFieldId="20" dataDxfId="5"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" uniqueName="status_TTOIn" name="status_TTOIn" queryTableFieldId="21" dataDxfId="4"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" uniqueName="Title" name="Title" queryTableFieldId="1" dataDxfId="3"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" uniqueName="TTOaddon" name="TTOaddon" queryTableFieldId="22" dataDxfId="2"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" uniqueName="FSObjType" name="Item Type" queryTableFieldId="25" dataDxfId="1"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" uniqueName="FileDirRef" name="Path" queryTableFieldId="24" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1943,11 +1956,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y360"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="A9:XFD9"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/IS447/System/Data/Pharmacy Dept/GEH TTO Data/GEH TTO TAT 2021 June.xlsx
+++ b/IS447/System/Data/Pharmacy Dept/GEH TTO Data/GEH TTO TAT 2021 June.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\shaza\IS447---Smart-Healthcare\IS447\System\Data\Pharmacy Dept\GEH TTO Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sherminliam/Documents/School Work/IS447/IS447---Smart-Healthcare/IS447/System/Data/Pharmacy Dept/GEH TTO Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA330E87-5491-48BD-B29A-4F3F339D58D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C849AD4-32C3-E146-9309-E809021CDAF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-90" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="19200" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2621" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2621" uniqueCount="316">
   <si>
     <t>Title</t>
   </si>
@@ -687,9 +687,6 @@
     <t>109</t>
   </si>
   <si>
-    <t>OT</t>
-  </si>
-  <si>
     <t>08:55</t>
   </si>
   <si>
@@ -966,9 +963,6 @@
     <t>22:45</t>
   </si>
   <si>
-    <t>icu 05</t>
-  </si>
-  <si>
     <t>14:21</t>
   </si>
   <si>
@@ -994,6 +988,9 @@
   </si>
   <si>
     <t>13:45</t>
+  </si>
+  <si>
+    <t>786</t>
   </si>
 </sst>
 </file>
@@ -1960,38 +1957,38 @@
   <dimension ref="A1:Y360"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="5" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="20" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="55.36328125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="55.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2068,7 +2065,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44348.041666666664</v>
       </c>
@@ -2135,7 +2132,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44348.041666666664</v>
       </c>
@@ -2202,7 +2199,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44348.041666666664</v>
       </c>
@@ -2269,7 +2266,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44348.041666666664</v>
       </c>
@@ -2336,7 +2333,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44348.041666666664</v>
       </c>
@@ -2397,7 +2394,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44348.041666666664</v>
       </c>
@@ -2464,7 +2461,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44348.041666666664</v>
       </c>
@@ -2527,7 +2524,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44348.041666666664</v>
       </c>
@@ -2594,7 +2591,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44348.041666666664</v>
       </c>
@@ -2661,7 +2658,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44348.041666666664</v>
       </c>
@@ -2728,7 +2725,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44349.041666666664</v>
       </c>
@@ -2795,7 +2792,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44349.041666666664</v>
       </c>
@@ -2860,7 +2857,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44349.041666666664</v>
       </c>
@@ -2927,7 +2924,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44349.041666666664</v>
       </c>
@@ -2994,7 +2991,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44349.041666666664</v>
       </c>
@@ -3059,7 +3056,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>44349.041666666664</v>
       </c>
@@ -3126,7 +3123,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>44349.041666666664</v>
       </c>
@@ -3193,7 +3190,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>44349.041666666664</v>
       </c>
@@ -3256,7 +3253,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>44349.041666666664</v>
       </c>
@@ -3321,7 +3318,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>44349.041666666664</v>
       </c>
@@ -3388,7 +3385,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>44349.041666666664</v>
       </c>
@@ -3455,7 +3452,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>44349.041666666664</v>
       </c>
@@ -3520,7 +3517,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>44349.041666666664</v>
       </c>
@@ -3581,7 +3578,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>44349.041666666664</v>
       </c>
@@ -3648,7 +3645,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>44349.041666666664</v>
       </c>
@@ -3715,7 +3712,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>44349.041666666664</v>
       </c>
@@ -3782,7 +3779,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>44349.041666666664</v>
       </c>
@@ -3851,7 +3848,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>44350</v>
       </c>
@@ -3918,7 +3915,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>44350.625</v>
       </c>
@@ -3985,7 +3982,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>44350</v>
       </c>
@@ -4050,7 +4047,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>44350</v>
       </c>
@@ -4119,7 +4116,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>44350</v>
       </c>
@@ -4184,7 +4181,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>44350.625</v>
       </c>
@@ -4251,7 +4248,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>44350.625</v>
       </c>
@@ -4318,7 +4315,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>44350</v>
       </c>
@@ -4383,7 +4380,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>44350.625</v>
       </c>
@@ -4444,7 +4441,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>44350.625</v>
       </c>
@@ -4509,7 +4506,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>44350.625</v>
       </c>
@@ -4570,7 +4567,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>44350.625</v>
       </c>
@@ -4635,7 +4632,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>44351</v>
       </c>
@@ -4704,7 +4701,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>44351</v>
       </c>
@@ -4771,7 +4768,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>44351</v>
       </c>
@@ -4838,7 +4835,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>44351</v>
       </c>
@@ -4905,7 +4902,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44351</v>
       </c>
@@ -4972,7 +4969,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44351</v>
       </c>
@@ -5041,7 +5038,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>44351</v>
       </c>
@@ -5102,7 +5099,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>44351</v>
       </c>
@@ -5171,7 +5168,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>44351</v>
       </c>
@@ -5236,7 +5233,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>44351</v>
       </c>
@@ -5303,7 +5300,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>44351</v>
       </c>
@@ -5364,7 +5361,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>44351</v>
       </c>
@@ -5433,7 +5430,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>44351</v>
       </c>
@@ -5500,7 +5497,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>44353</v>
       </c>
@@ -5567,7 +5564,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>44353</v>
       </c>
@@ -5634,7 +5631,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>44354</v>
       </c>
@@ -5701,7 +5698,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>44354</v>
       </c>
@@ -5768,7 +5765,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>44354</v>
       </c>
@@ -5833,7 +5830,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>44354</v>
       </c>
@@ -5898,7 +5895,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>44354</v>
       </c>
@@ -5963,7 +5960,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>44354</v>
       </c>
@@ -6028,7 +6025,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>44354</v>
       </c>
@@ -6093,7 +6090,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>44354</v>
       </c>
@@ -6160,7 +6157,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>44355</v>
       </c>
@@ -6227,7 +6224,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>44355</v>
       </c>
@@ -6294,7 +6291,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>44355</v>
       </c>
@@ -6361,7 +6358,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>44355</v>
       </c>
@@ -6428,7 +6425,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>44355</v>
       </c>
@@ -6493,7 +6490,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>44355</v>
       </c>
@@ -6558,7 +6555,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>44355</v>
       </c>
@@ -6625,7 +6622,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>44356</v>
       </c>
@@ -6692,7 +6689,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>44356</v>
       </c>
@@ -6759,7 +6756,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>44356</v>
       </c>
@@ -6826,7 +6823,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>44356</v>
       </c>
@@ -6891,7 +6888,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>44356</v>
       </c>
@@ -6958,7 +6955,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>44356</v>
       </c>
@@ -7021,7 +7018,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>44356</v>
       </c>
@@ -7090,7 +7087,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>44356</v>
       </c>
@@ -7157,7 +7154,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>44356</v>
       </c>
@@ -7214,7 +7211,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>44357</v>
       </c>
@@ -7283,7 +7280,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>44357</v>
       </c>
@@ -7350,7 +7347,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>44357</v>
       </c>
@@ -7417,7 +7414,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>44357</v>
       </c>
@@ -7484,7 +7481,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>44357</v>
       </c>
@@ -7551,7 +7548,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>44357</v>
       </c>
@@ -7620,7 +7617,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>44357</v>
       </c>
@@ -7687,7 +7684,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>44358</v>
       </c>
@@ -7752,7 +7749,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>44358</v>
       </c>
@@ -7819,7 +7816,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>44358</v>
       </c>
@@ -7886,7 +7883,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>44358</v>
       </c>
@@ -7953,7 +7950,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>44358</v>
       </c>
@@ -8020,7 +8017,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>44358</v>
       </c>
@@ -8087,7 +8084,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>44358</v>
       </c>
@@ -8154,7 +8151,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>44358</v>
       </c>
@@ -8221,7 +8218,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>44358</v>
       </c>
@@ -8288,7 +8285,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>44358</v>
       </c>
@@ -8355,7 +8352,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>44358</v>
       </c>
@@ -8422,7 +8419,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>44358</v>
       </c>
@@ -8489,7 +8486,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>44358</v>
       </c>
@@ -8554,7 +8551,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>44358</v>
       </c>
@@ -8621,7 +8618,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>44358</v>
       </c>
@@ -8690,7 +8687,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>44358</v>
       </c>
@@ -8759,7 +8756,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>44358</v>
       </c>
@@ -8828,7 +8825,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>44358</v>
       </c>
@@ -8895,7 +8892,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>44358</v>
       </c>
@@ -8964,7 +8961,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>44358</v>
       </c>
@@ -9021,7 +9018,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>44358</v>
       </c>
@@ -9086,7 +9083,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>44358</v>
       </c>
@@ -9153,7 +9150,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>44358</v>
       </c>
@@ -9220,7 +9217,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>44359</v>
       </c>
@@ -9287,7 +9284,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>44359</v>
       </c>
@@ -9354,7 +9351,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>44359</v>
       </c>
@@ -9419,7 +9416,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>44360</v>
       </c>
@@ -9486,7 +9483,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>44360</v>
       </c>
@@ -9551,7 +9548,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>44360</v>
       </c>
@@ -9620,7 +9617,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>44360</v>
       </c>
@@ -9679,7 +9676,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>44360</v>
       </c>
@@ -9746,7 +9743,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>44361</v>
       </c>
@@ -9813,7 +9810,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>44361</v>
       </c>
@@ -9880,7 +9877,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>44361</v>
       </c>
@@ -9945,7 +9942,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>44361</v>
       </c>
@@ -10012,7 +10009,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>44361</v>
       </c>
@@ -10079,7 +10076,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>44361</v>
       </c>
@@ -10136,7 +10133,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>44361</v>
       </c>
@@ -10203,7 +10200,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>44361</v>
       </c>
@@ -10262,7 +10259,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>44361</v>
       </c>
@@ -10329,7 +10326,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>44361</v>
       </c>
@@ -10396,7 +10393,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>44361</v>
       </c>
@@ -10463,7 +10460,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>44361</v>
       </c>
@@ -10530,7 +10527,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>44361</v>
       </c>
@@ -10599,7 +10596,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>44361</v>
       </c>
@@ -10664,7 +10661,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>44361</v>
       </c>
@@ -10721,7 +10718,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>44362</v>
       </c>
@@ -10786,7 +10783,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>44362</v>
       </c>
@@ -10849,7 +10846,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>44362</v>
       </c>
@@ -10916,7 +10913,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>44362</v>
       </c>
@@ -10924,7 +10921,7 @@
         <v>1021043016</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>214</v>
+        <v>315</v>
       </c>
       <c r="D136" s="4" t="s">
         <v>26</v>
@@ -10943,7 +10940,7 @@
       <c r="L136" s="4"/>
       <c r="M136" s="4"/>
       <c r="N136" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O136" s="2"/>
       <c r="P136" s="3" t="s">
@@ -10973,7 +10970,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>44362</v>
       </c>
@@ -10981,7 +10978,7 @@
         <v>1021040354</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D137" s="4" t="s">
         <v>26</v>
@@ -10994,7 +10991,7 @@
         <v>44362.393055555556</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I137" s="5"/>
       <c r="J137" s="5"/>
@@ -11032,7 +11029,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>44362</v>
       </c>
@@ -11055,7 +11052,7 @@
         <v>44362.417361111111</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I138" s="5">
         <v>44362.427777777775</v>
@@ -11099,7 +11096,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>44362</v>
       </c>
@@ -11164,7 +11161,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>44362</v>
       </c>
@@ -11199,7 +11196,7 @@
       <c r="L140" s="4"/>
       <c r="M140" s="4"/>
       <c r="N140" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O140" s="2"/>
       <c r="P140" s="3" t="s">
@@ -11229,7 +11226,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>44362</v>
       </c>
@@ -11237,7 +11234,7 @@
         <v>1021042524</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>51</v>
@@ -11264,7 +11261,7 @@
       </c>
       <c r="M141" s="4"/>
       <c r="N141" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O141" s="2"/>
       <c r="P141" s="3" t="s">
@@ -11294,7 +11291,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>44362</v>
       </c>
@@ -11302,7 +11299,7 @@
         <v>1021037913</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D142" s="4" t="s">
         <v>26</v>
@@ -11361,7 +11358,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>44362</v>
       </c>
@@ -11388,7 +11385,7 @@
       <c r="L143" s="4"/>
       <c r="M143" s="4"/>
       <c r="N143" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O143" s="2"/>
       <c r="P143" s="3" t="s">
@@ -11418,7 +11415,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>44362</v>
       </c>
@@ -11485,7 +11482,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>44362</v>
       </c>
@@ -11552,7 +11549,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>44362</v>
       </c>
@@ -11617,7 +11614,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>44362</v>
       </c>
@@ -11625,7 +11622,7 @@
         <v>1021041864</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D147" s="4" t="s">
         <v>26</v>
@@ -11682,7 +11679,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>44362</v>
       </c>
@@ -11690,7 +11687,7 @@
         <v>1021042638</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>26</v>
@@ -11705,7 +11702,7 @@
         <v>44362.602777777778</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I148" s="5"/>
       <c r="J148" s="5"/>
@@ -11713,7 +11710,7 @@
       <c r="L148" s="4"/>
       <c r="M148" s="4"/>
       <c r="N148" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O148" s="2"/>
       <c r="P148" s="3" t="s">
@@ -11743,7 +11740,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>44362</v>
       </c>
@@ -11810,7 +11807,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>44363</v>
       </c>
@@ -11877,7 +11874,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>44363</v>
       </c>
@@ -11942,7 +11939,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>44363</v>
       </c>
@@ -11979,7 +11976,7 @@
       <c r="L152" s="4"/>
       <c r="M152" s="4"/>
       <c r="N152" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O152" s="2"/>
       <c r="P152" s="3" t="s">
@@ -12009,7 +12006,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>44363</v>
       </c>
@@ -12074,7 +12071,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>44363</v>
       </c>
@@ -12141,7 +12138,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>44363</v>
       </c>
@@ -12206,7 +12203,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>44363</v>
       </c>
@@ -12241,7 +12238,7 @@
       <c r="L156" s="4"/>
       <c r="M156" s="4"/>
       <c r="N156" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O156" s="2"/>
       <c r="P156" s="3" t="s">
@@ -12271,7 +12268,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>44363</v>
       </c>
@@ -12308,7 +12305,7 @@
       <c r="L157" s="4"/>
       <c r="M157" s="4"/>
       <c r="N157" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O157" s="2"/>
       <c r="P157" s="3" t="s">
@@ -12338,7 +12335,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>44363</v>
       </c>
@@ -12401,7 +12398,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>44363</v>
       </c>
@@ -12466,7 +12463,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>44363</v>
       </c>
@@ -12531,7 +12528,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>44363</v>
       </c>
@@ -12554,7 +12551,7 @@
         <v>44363.411805555559</v>
       </c>
       <c r="H161" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I161" s="5">
         <v>44363.423611111109</v>
@@ -12566,7 +12563,7 @@
       <c r="L161" s="4"/>
       <c r="M161" s="4"/>
       <c r="N161" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O161" s="2"/>
       <c r="P161" s="3" t="s">
@@ -12596,7 +12593,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>44363</v>
       </c>
@@ -12604,7 +12601,7 @@
         <v>1021043172</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D162" s="4" t="s">
         <v>26</v>
@@ -12619,7 +12616,7 @@
         <v>44363.434027777781</v>
       </c>
       <c r="H162" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I162" s="5">
         <v>44363.451388888891</v>
@@ -12663,7 +12660,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>44363</v>
       </c>
@@ -12671,7 +12668,7 @@
         <v>1021043353</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D163" s="4" t="s">
         <v>26</v>
@@ -12686,7 +12683,7 @@
         <v>44363.434027777781</v>
       </c>
       <c r="H163" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I163" s="5"/>
       <c r="J163" s="5"/>
@@ -12696,7 +12693,7 @@
       </c>
       <c r="M163" s="4"/>
       <c r="N163" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O163" s="2"/>
       <c r="P163" s="3" t="s">
@@ -12726,7 +12723,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>44363</v>
       </c>
@@ -12793,7 +12790,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>44363</v>
       </c>
@@ -12830,7 +12827,7 @@
       <c r="L165" s="4"/>
       <c r="M165" s="4"/>
       <c r="N165" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O165" s="2"/>
       <c r="P165" s="3" t="s">
@@ -12860,7 +12857,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>44363</v>
       </c>
@@ -12895,11 +12892,11 @@
         <v>67</v>
       </c>
       <c r="L166" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M166" s="4"/>
       <c r="N166" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O166" s="2"/>
       <c r="P166" s="3" t="s">
@@ -12929,7 +12926,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>44363</v>
       </c>
@@ -12937,7 +12934,7 @@
         <v>1021039255</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D167" s="4" t="s">
         <v>26</v>
@@ -12952,7 +12949,7 @@
         <v>44363.457638888889</v>
       </c>
       <c r="H167" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I167" s="5">
         <v>44363.466666666667</v>
@@ -12964,7 +12961,7 @@
       <c r="L167" s="4"/>
       <c r="M167" s="4"/>
       <c r="N167" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O167" s="2"/>
       <c r="P167" s="3" t="s">
@@ -12994,7 +12991,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>44363</v>
       </c>
@@ -13029,7 +13026,7 @@
       <c r="L168" s="4"/>
       <c r="M168" s="4"/>
       <c r="N168" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O168" s="2"/>
       <c r="P168" s="3" t="s">
@@ -13059,7 +13056,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>44363</v>
       </c>
@@ -13126,7 +13123,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>44363</v>
       </c>
@@ -13134,7 +13131,7 @@
         <v>1021039661</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D170" s="4" t="s">
         <v>26</v>
@@ -13195,7 +13192,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>44363</v>
       </c>
@@ -13203,7 +13200,7 @@
         <v>1021043233</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D171" s="4" t="s">
         <v>51</v>
@@ -13260,7 +13257,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>44363</v>
       </c>
@@ -13297,7 +13294,7 @@
       <c r="L172" s="4"/>
       <c r="M172" s="4"/>
       <c r="N172" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O172" s="2"/>
       <c r="P172" s="3" t="s">
@@ -13327,7 +13324,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>44364</v>
       </c>
@@ -13350,7 +13347,7 @@
         <v>44364.381944444445</v>
       </c>
       <c r="H173" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I173" s="5">
         <v>44364.395833333336</v>
@@ -13394,7 +13391,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>44364</v>
       </c>
@@ -13402,7 +13399,7 @@
         <v>1021042886</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D174" s="4" t="s">
         <v>26</v>
@@ -13461,7 +13458,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>44364</v>
       </c>
@@ -13469,7 +13466,7 @@
         <v>1021043403</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D175" s="4" t="s">
         <v>26</v>
@@ -13530,7 +13527,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>44364</v>
       </c>
@@ -13597,7 +13594,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>44364</v>
       </c>
@@ -13632,7 +13629,7 @@
       </c>
       <c r="M177" s="4"/>
       <c r="N177" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O177" s="2"/>
       <c r="P177" s="3" t="s">
@@ -13662,7 +13659,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>44364</v>
       </c>
@@ -13729,7 +13726,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>44364</v>
       </c>
@@ -13798,7 +13795,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>44364</v>
       </c>
@@ -13806,7 +13803,7 @@
         <v>1021042886</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D180" s="4" t="s">
         <v>26</v>
@@ -13865,7 +13862,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>44364</v>
       </c>
@@ -13932,7 +13929,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>44364</v>
       </c>
@@ -13940,7 +13937,7 @@
         <v>1021043353</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D182" s="4" t="s">
         <v>51</v>
@@ -13969,7 +13966,7 @@
       <c r="L182" s="4"/>
       <c r="M182" s="4"/>
       <c r="N182" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O182" s="2"/>
       <c r="P182" s="3" t="s">
@@ -13999,7 +13996,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>44364</v>
       </c>
@@ -14032,7 +14029,7 @@
       </c>
       <c r="M183" s="4"/>
       <c r="N183" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O183" s="2"/>
       <c r="P183" s="3" t="s">
@@ -14062,7 +14059,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>44364</v>
       </c>
@@ -14085,7 +14082,7 @@
         <v>44364.659722222219</v>
       </c>
       <c r="H184" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I184" s="5">
         <v>44364.666666666664</v>
@@ -14129,7 +14126,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>44365</v>
       </c>
@@ -14137,7 +14134,7 @@
         <v>1021017984</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D185" s="4" t="s">
         <v>26</v>
@@ -14194,7 +14191,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>44365</v>
       </c>
@@ -14261,7 +14258,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>44365</v>
       </c>
@@ -14330,7 +14327,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="188" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>44365</v>
       </c>
@@ -14338,7 +14335,7 @@
         <v>1021017984</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D188" s="4" t="s">
         <v>26</v>
@@ -14355,11 +14352,11 @@
       <c r="J188" s="5"/>
       <c r="K188" s="3"/>
       <c r="L188" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M188" s="4"/>
       <c r="N188" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O188" s="2"/>
       <c r="P188" s="3" t="s">
@@ -14389,7 +14386,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="189" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>44365</v>
       </c>
@@ -14422,7 +14419,7 @@
       </c>
       <c r="M189" s="4"/>
       <c r="N189" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O189" s="2"/>
       <c r="P189" s="3" t="s">
@@ -14452,7 +14449,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="190" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>44365</v>
       </c>
@@ -14517,7 +14514,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="191" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>44365</v>
       </c>
@@ -14584,7 +14581,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="192" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>44365</v>
       </c>
@@ -14607,14 +14604,14 @@
         <v>44365.436805555553</v>
       </c>
       <c r="H192" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I192" s="5">
         <v>44365.445833333331</v>
       </c>
       <c r="J192" s="5"/>
       <c r="K192" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L192" s="4"/>
       <c r="M192" s="4"/>
@@ -14649,7 +14646,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="193" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>44365</v>
       </c>
@@ -14672,7 +14669,7 @@
         <v>44365.4375</v>
       </c>
       <c r="H193" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I193" s="5">
         <v>44365.46875</v>
@@ -14681,12 +14678,12 @@
         <v>44365.479166666664</v>
       </c>
       <c r="K193" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L193" s="4"/>
       <c r="M193" s="4"/>
       <c r="N193" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O193" s="2"/>
       <c r="P193" s="3" t="s">
@@ -14716,7 +14713,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="194" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>44365</v>
       </c>
@@ -14724,7 +14721,7 @@
         <v>1021041286</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D194" s="4" t="s">
         <v>26</v>
@@ -14739,7 +14736,7 @@
         <v>44365.479861111111</v>
       </c>
       <c r="H194" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I194" s="5">
         <v>44365.506944444445</v>
@@ -14781,7 +14778,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="195" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>44365</v>
       </c>
@@ -14804,14 +14801,14 @@
         <v>44365.515972222223</v>
       </c>
       <c r="H195" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I195" s="5">
         <v>44365.518750000003</v>
       </c>
       <c r="J195" s="5"/>
       <c r="K195" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L195" s="4"/>
       <c r="M195" s="4"/>
@@ -14846,7 +14843,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="196" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>44365</v>
       </c>
@@ -14854,7 +14851,7 @@
         <v>1021041238</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D196" s="4" t="s">
         <v>26</v>
@@ -14869,14 +14866,14 @@
         <v>44365.529166666667</v>
       </c>
       <c r="H196" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I196" s="5">
         <v>44365.541666666664</v>
       </c>
       <c r="J196" s="5"/>
       <c r="K196" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L196" s="4"/>
       <c r="M196" s="4"/>
@@ -14911,7 +14908,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="197" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>44365</v>
       </c>
@@ -14938,7 +14935,7 @@
       <c r="L197" s="4"/>
       <c r="M197" s="4"/>
       <c r="N197" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O197" s="2"/>
       <c r="P197" s="3" t="s">
@@ -14968,7 +14965,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="198" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>44366</v>
       </c>
@@ -14995,7 +14992,7 @@
       <c r="L198" s="4"/>
       <c r="M198" s="4"/>
       <c r="N198" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O198" s="2"/>
       <c r="P198" s="3" t="s">
@@ -15025,7 +15022,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="199" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>44366</v>
       </c>
@@ -15092,7 +15089,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="200" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>44366</v>
       </c>
@@ -15119,7 +15116,7 @@
       <c r="L200" s="4"/>
       <c r="M200" s="4"/>
       <c r="N200" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O200" s="2"/>
       <c r="P200" s="3" t="s">
@@ -15149,7 +15146,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="201" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>44366</v>
       </c>
@@ -15176,7 +15173,7 @@
       <c r="L201" s="4"/>
       <c r="M201" s="4"/>
       <c r="N201" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O201" s="2"/>
       <c r="P201" s="3" t="s">
@@ -15206,7 +15203,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="202" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>44366</v>
       </c>
@@ -15273,7 +15270,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="203" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>44366</v>
       </c>
@@ -15300,7 +15297,7 @@
       <c r="L203" s="4"/>
       <c r="M203" s="4"/>
       <c r="N203" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O203" s="2"/>
       <c r="P203" s="3" t="s">
@@ -15330,7 +15327,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="204" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>44366</v>
       </c>
@@ -15338,7 +15335,7 @@
         <v>1021043815</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D204" s="4" t="s">
         <v>26</v>
@@ -15369,7 +15366,7 @@
       </c>
       <c r="M204" s="4"/>
       <c r="N204" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O204" s="2"/>
       <c r="P204" s="3" t="s">
@@ -15399,7 +15396,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="205" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>44367</v>
       </c>
@@ -15468,7 +15465,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="206" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>44367</v>
       </c>
@@ -15501,7 +15498,7 @@
       </c>
       <c r="M206" s="4"/>
       <c r="N206" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O206" s="2"/>
       <c r="P206" s="3" t="s">
@@ -15531,7 +15528,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="207" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>44368</v>
       </c>
@@ -15568,7 +15565,7 @@
       <c r="L207" s="4"/>
       <c r="M207" s="4"/>
       <c r="N207" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O207" s="2"/>
       <c r="P207" s="3" t="s">
@@ -15598,7 +15595,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="208" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>44368</v>
       </c>
@@ -15665,7 +15662,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="209" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>44368</v>
       </c>
@@ -15732,7 +15729,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="210" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>44368</v>
       </c>
@@ -15740,7 +15737,7 @@
         <v>1021042839</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D210" s="4" t="s">
         <v>51</v>
@@ -15799,7 +15796,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="211" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>44368</v>
       </c>
@@ -15866,7 +15863,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="212" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>44368</v>
       </c>
@@ -15935,7 +15932,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="213" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>44368</v>
       </c>
@@ -16002,7 +15999,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="214" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>44368</v>
       </c>
@@ -16010,7 +16007,7 @@
         <v>1021044107</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D214" s="4" t="s">
         <v>51</v>
@@ -16059,7 +16056,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="215" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>44368</v>
       </c>
@@ -16092,7 +16089,7 @@
       </c>
       <c r="M215" s="4"/>
       <c r="N215" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O215" s="2"/>
       <c r="P215" s="3" t="s">
@@ -16122,7 +16119,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="216" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>44369</v>
       </c>
@@ -16189,7 +16186,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="217" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>44369</v>
       </c>
@@ -16256,7 +16253,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="218" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>44369</v>
       </c>
@@ -16293,7 +16290,7 @@
       <c r="L218" s="4"/>
       <c r="M218" s="4"/>
       <c r="N218" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O218" s="2"/>
       <c r="P218" s="3" t="s">
@@ -16323,7 +16320,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="219" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>44369</v>
       </c>
@@ -16331,7 +16328,7 @@
         <v>1021039379</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D219" s="4" t="s">
         <v>26</v>
@@ -16360,7 +16357,7 @@
       <c r="L219" s="4"/>
       <c r="M219" s="4"/>
       <c r="N219" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O219" s="2"/>
       <c r="P219" s="3" t="s">
@@ -16390,7 +16387,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="220" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>44369</v>
       </c>
@@ -16457,7 +16454,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="221" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>44369</v>
       </c>
@@ -16494,7 +16491,7 @@
       <c r="L221" s="4"/>
       <c r="M221" s="4"/>
       <c r="N221" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O221" s="2"/>
       <c r="P221" s="3" t="s">
@@ -16524,7 +16521,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="222" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>44369</v>
       </c>
@@ -16532,7 +16529,7 @@
         <v>1021044683</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D222" s="4" t="s">
         <v>26</v>
@@ -16561,7 +16558,7 @@
       <c r="L222" s="4"/>
       <c r="M222" s="4"/>
       <c r="N222" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O222" s="2"/>
       <c r="P222" s="3" t="s">
@@ -16591,7 +16588,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="223" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>44369</v>
       </c>
@@ -16599,7 +16596,7 @@
         <v>1021044682</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D223" s="4" t="s">
         <v>51</v>
@@ -16624,7 +16621,7 @@
       </c>
       <c r="M223" s="4"/>
       <c r="N223" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O223" s="2"/>
       <c r="P223" s="3" t="s">
@@ -16654,7 +16651,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="224" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>44369</v>
       </c>
@@ -16662,7 +16659,7 @@
         <v>1021044513</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D224" s="4" t="s">
         <v>26</v>
@@ -16691,7 +16688,7 @@
       <c r="L224" s="4"/>
       <c r="M224" s="4"/>
       <c r="N224" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O224" s="2"/>
       <c r="P224" s="3" t="s">
@@ -16721,7 +16718,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="225" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>44369</v>
       </c>
@@ -16758,7 +16755,7 @@
       <c r="L225" s="4"/>
       <c r="M225" s="4"/>
       <c r="N225" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O225" s="2"/>
       <c r="P225" s="3" t="s">
@@ -16788,7 +16785,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="226" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>44369</v>
       </c>
@@ -16796,7 +16793,7 @@
         <v>1021044682</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D226" s="4" t="s">
         <v>26</v>
@@ -16821,7 +16818,7 @@
       </c>
       <c r="M226" s="4"/>
       <c r="N226" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O226" s="2"/>
       <c r="P226" s="3" t="s">
@@ -16851,7 +16848,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="227" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>44369</v>
       </c>
@@ -16884,7 +16881,7 @@
       </c>
       <c r="M227" s="4"/>
       <c r="N227" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O227" s="2"/>
       <c r="P227" s="3" t="s">
@@ -16914,7 +16911,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="228" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>44369</v>
       </c>
@@ -16922,7 +16919,7 @@
         <v>1021043303</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D228" s="4" t="s">
         <v>26</v>
@@ -16951,7 +16948,7 @@
       <c r="L228" s="4"/>
       <c r="M228" s="4"/>
       <c r="N228" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O228" s="2"/>
       <c r="P228" s="3" t="s">
@@ -16981,7 +16978,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="229" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>44369</v>
       </c>
@@ -16989,7 +16986,7 @@
         <v>1021044593</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D229" s="4" t="s">
         <v>26</v>
@@ -17018,7 +17015,7 @@
       <c r="L229" s="4"/>
       <c r="M229" s="4"/>
       <c r="N229" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O229" s="2"/>
       <c r="P229" s="3" t="s">
@@ -17048,7 +17045,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="230" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>44369</v>
       </c>
@@ -17056,7 +17053,7 @@
         <v>1021042912</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D230" s="4" t="s">
         <v>26</v>
@@ -17115,7 +17112,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="231" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>44369</v>
       </c>
@@ -17123,7 +17120,7 @@
         <v>1021042047</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D231" s="4" t="s">
         <v>26</v>
@@ -17152,7 +17149,7 @@
       <c r="L231" s="4"/>
       <c r="M231" s="4"/>
       <c r="N231" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O231" s="2"/>
       <c r="P231" s="3" t="s">
@@ -17182,7 +17179,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="232" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>44369</v>
       </c>
@@ -17190,7 +17187,7 @@
         <v>1021043303</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D232" s="4" t="s">
         <v>26</v>
@@ -17249,7 +17246,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="233" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>44369</v>
       </c>
@@ -17286,7 +17283,7 @@
       <c r="L233" s="4"/>
       <c r="M233" s="4"/>
       <c r="N233" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O233" s="2"/>
       <c r="P233" s="3" t="s">
@@ -17316,7 +17313,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="234" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>44369</v>
       </c>
@@ -17339,7 +17336,7 @@
         <v>44369.519444444442</v>
       </c>
       <c r="H234" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I234" s="5">
         <v>44369.529861111114</v>
@@ -17381,7 +17378,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="235" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>44369</v>
       </c>
@@ -17389,7 +17386,7 @@
         <v>1021044812</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D235" s="4" t="s">
         <v>26</v>
@@ -17448,7 +17445,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="236" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>44369</v>
       </c>
@@ -17515,7 +17512,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="237" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>44370</v>
       </c>
@@ -17582,7 +17579,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="238" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>44370</v>
       </c>
@@ -17649,7 +17646,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="239" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>44370</v>
       </c>
@@ -17716,7 +17713,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="240" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>44370</v>
       </c>
@@ -17783,7 +17780,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="241" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>44370</v>
       </c>
@@ -17848,7 +17845,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="242" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>44370</v>
       </c>
@@ -17915,7 +17912,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="243" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>44370</v>
       </c>
@@ -17982,7 +17979,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="244" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>44370</v>
       </c>
@@ -18049,7 +18046,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="245" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>44370</v>
       </c>
@@ -18116,7 +18113,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="246" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>44370</v>
       </c>
@@ -18181,7 +18178,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="247" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>44370</v>
       </c>
@@ -18248,7 +18245,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="248" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>44370</v>
       </c>
@@ -18313,7 +18310,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="249" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>44370</v>
       </c>
@@ -18350,7 +18347,7 @@
       <c r="L249" s="4"/>
       <c r="M249" s="4"/>
       <c r="N249" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O249" s="2"/>
       <c r="P249" s="3" t="s">
@@ -18380,7 +18377,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="250" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>44371</v>
       </c>
@@ -18447,7 +18444,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="251" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>44371</v>
       </c>
@@ -18478,7 +18475,7 @@
       <c r="J251" s="5"/>
       <c r="K251" s="3"/>
       <c r="L251" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M251" s="4"/>
       <c r="N251" s="5" t="s">
@@ -18512,7 +18509,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="252" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>44371</v>
       </c>
@@ -18579,7 +18576,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="253" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>44371</v>
       </c>
@@ -18587,7 +18584,7 @@
         <v>1021043425</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D253" s="4" t="s">
         <v>26</v>
@@ -18646,7 +18643,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="254" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>44371</v>
       </c>
@@ -18713,7 +18710,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="255" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>44371</v>
       </c>
@@ -18721,7 +18718,7 @@
         <v>1021044425</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D255" s="4" t="s">
         <v>26</v>
@@ -18778,7 +18775,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="256" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>44371</v>
       </c>
@@ -18843,7 +18840,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="257" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>44371</v>
       </c>
@@ -18851,7 +18848,7 @@
         <v>1021043497</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D257" s="4" t="s">
         <v>26</v>
@@ -18882,7 +18879,7 @@
       </c>
       <c r="M257" s="4"/>
       <c r="N257" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O257" s="2"/>
       <c r="P257" s="3" t="s">
@@ -18912,7 +18909,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="258" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>44371</v>
       </c>
@@ -18947,7 +18944,7 @@
       </c>
       <c r="M258" s="4"/>
       <c r="N258" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O258" s="2"/>
       <c r="P258" s="3" t="s">
@@ -18977,7 +18974,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="259" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>44371</v>
       </c>
@@ -19044,7 +19041,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="260" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>44371</v>
       </c>
@@ -19109,7 +19106,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="261" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>44371</v>
       </c>
@@ -19117,7 +19114,7 @@
         <v>1021044930</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D261" s="4" t="s">
         <v>26</v>
@@ -19176,7 +19173,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="262" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>44371</v>
       </c>
@@ -19184,7 +19181,7 @@
         <v>1021044524</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D262" s="4" t="s">
         <v>26</v>
@@ -19213,7 +19210,7 @@
       <c r="L262" s="4"/>
       <c r="M262" s="4"/>
       <c r="N262" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O262" s="2"/>
       <c r="P262" s="3" t="s">
@@ -19243,7 +19240,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="263" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>44371</v>
       </c>
@@ -19280,7 +19277,7 @@
       <c r="L263" s="4"/>
       <c r="M263" s="4"/>
       <c r="N263" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O263" s="2"/>
       <c r="P263" s="3" t="s">
@@ -19310,7 +19307,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="264" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>44371</v>
       </c>
@@ -19318,7 +19315,7 @@
         <v>1021042396</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D264" s="4" t="s">
         <v>26</v>
@@ -19347,7 +19344,7 @@
       <c r="L264" s="4"/>
       <c r="M264" s="4"/>
       <c r="N264" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O264" s="2"/>
       <c r="P264" s="3" t="s">
@@ -19377,7 +19374,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="265" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>44371</v>
       </c>
@@ -19414,7 +19411,7 @@
       <c r="L265" s="4"/>
       <c r="M265" s="4"/>
       <c r="N265" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O265" s="2"/>
       <c r="P265" s="3" t="s">
@@ -19444,7 +19441,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="266" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>44371</v>
       </c>
@@ -19511,7 +19508,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="267" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>44371</v>
       </c>
@@ -19542,7 +19539,7 @@
       <c r="J267" s="5"/>
       <c r="K267" s="3"/>
       <c r="L267" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M267" s="4"/>
       <c r="N267" s="5" t="s">
@@ -19576,7 +19573,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="268" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>44372</v>
       </c>
@@ -19611,7 +19608,7 @@
       <c r="L268" s="4"/>
       <c r="M268" s="4"/>
       <c r="N268" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O268" s="2"/>
       <c r="P268" s="3" t="s">
@@ -19641,7 +19638,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="269" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>44372</v>
       </c>
@@ -19676,7 +19673,7 @@
         <v>112</v>
       </c>
       <c r="L269" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M269" s="4"/>
       <c r="N269" s="5" t="s">
@@ -19710,7 +19707,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="270" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>44372</v>
       </c>
@@ -19777,7 +19774,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="271" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>44372</v>
       </c>
@@ -19844,7 +19841,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="272" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>44372</v>
       </c>
@@ -19911,7 +19908,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="273" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>44372</v>
       </c>
@@ -19919,7 +19916,7 @@
         <v>1021045479</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D273" s="4" t="s">
         <v>26</v>
@@ -19978,7 +19975,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="274" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>44372</v>
       </c>
@@ -20015,7 +20012,7 @@
       <c r="L274" s="4"/>
       <c r="M274" s="4"/>
       <c r="N274" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O274" s="2"/>
       <c r="P274" s="3" t="s">
@@ -20045,7 +20042,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="275" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>44372</v>
       </c>
@@ -20112,7 +20109,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="276" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>44372</v>
       </c>
@@ -20179,7 +20176,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="277" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>44372</v>
       </c>
@@ -20246,7 +20243,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="278" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>44372</v>
       </c>
@@ -20254,7 +20251,7 @@
         <v>1021045479</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D278" s="4" t="s">
         <v>51</v>
@@ -20313,7 +20310,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="279" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>44372</v>
       </c>
@@ -20321,7 +20318,7 @@
         <v>1021045070</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D279" s="4" t="s">
         <v>26</v>
@@ -20350,7 +20347,7 @@
       <c r="L279" s="4"/>
       <c r="M279" s="4"/>
       <c r="N279" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O279" s="2"/>
       <c r="P279" s="3" t="s">
@@ -20380,7 +20377,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="280" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>44372</v>
       </c>
@@ -20388,7 +20385,7 @@
         <v>1021045331</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D280" s="4" t="s">
         <v>26</v>
@@ -20417,7 +20414,7 @@
       <c r="L280" s="4"/>
       <c r="M280" s="4"/>
       <c r="N280" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O280" s="2"/>
       <c r="P280" s="3" t="s">
@@ -20447,7 +20444,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="281" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>44373</v>
       </c>
@@ -20514,7 +20511,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="282" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>44373</v>
       </c>
@@ -20581,7 +20578,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="283" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>44373</v>
       </c>
@@ -20604,7 +20601,7 @@
         <v>44373.472916666666</v>
       </c>
       <c r="H283" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I283" s="5">
         <v>44373.478472222225</v>
@@ -20648,7 +20645,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="284" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>44374</v>
       </c>
@@ -20687,7 +20684,7 @@
       </c>
       <c r="M284" s="4"/>
       <c r="N284" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O284" s="2"/>
       <c r="P284" s="3" t="s">
@@ -20717,7 +20714,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="285" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>44375</v>
       </c>
@@ -20752,7 +20749,7 @@
       <c r="L285" s="4"/>
       <c r="M285" s="4"/>
       <c r="N285" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O285" s="2"/>
       <c r="P285" s="3" t="s">
@@ -20782,7 +20779,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="286" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>44375</v>
       </c>
@@ -20819,7 +20816,7 @@
       <c r="L286" s="4"/>
       <c r="M286" s="4"/>
       <c r="N286" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O286" s="2"/>
       <c r="P286" s="3" t="s">
@@ -20849,7 +20846,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="287" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>44375</v>
       </c>
@@ -20857,7 +20854,7 @@
         <v>1021045759</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D287" s="4" t="s">
         <v>26</v>
@@ -20916,7 +20913,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="288" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>44375</v>
       </c>
@@ -20943,7 +20940,7 @@
       <c r="L288" s="4"/>
       <c r="M288" s="4"/>
       <c r="N288" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O288" s="2"/>
       <c r="P288" s="3" t="s">
@@ -20973,7 +20970,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="289" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>44375</v>
       </c>
@@ -20996,7 +20993,7 @@
         <v>44375.402777777781</v>
       </c>
       <c r="H289" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I289" s="5"/>
       <c r="J289" s="5"/>
@@ -21004,7 +21001,7 @@
       <c r="L289" s="4"/>
       <c r="M289" s="4"/>
       <c r="N289" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O289" s="2"/>
       <c r="P289" s="3" t="s">
@@ -21034,7 +21031,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="290" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>44375</v>
       </c>
@@ -21069,7 +21066,7 @@
       <c r="L290" s="4"/>
       <c r="M290" s="4"/>
       <c r="N290" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O290" s="2"/>
       <c r="P290" s="3" t="s">
@@ -21099,7 +21096,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="291" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>44375</v>
       </c>
@@ -21107,7 +21104,7 @@
         <v>1021042671</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D291" s="4" t="s">
         <v>26</v>
@@ -21166,7 +21163,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="292" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>44375</v>
       </c>
@@ -21201,7 +21198,7 @@
       <c r="L292" s="4"/>
       <c r="M292" s="4"/>
       <c r="N292" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O292" s="2"/>
       <c r="P292" s="3" t="s">
@@ -21231,7 +21228,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="293" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>44375</v>
       </c>
@@ -21239,7 +21236,7 @@
         <v>1021046356</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D293" s="4" t="s">
         <v>26</v>
@@ -21263,7 +21260,7 @@
         <v>44375.531944444447</v>
       </c>
       <c r="K293" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L293" s="4"/>
       <c r="M293" s="4"/>
@@ -21298,7 +21295,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="294" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>44375</v>
       </c>
@@ -21331,7 +21328,7 @@
       </c>
       <c r="M294" s="4"/>
       <c r="N294" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O294" s="2"/>
       <c r="P294" s="3" t="s">
@@ -21361,7 +21358,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="295" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>44375</v>
       </c>
@@ -21369,7 +21366,7 @@
         <v>1021044106</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D295" s="4" t="s">
         <v>26</v>
@@ -21384,7 +21381,7 @@
         <v>44375.548611111109</v>
       </c>
       <c r="H295" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I295" s="5"/>
       <c r="J295" s="5"/>
@@ -21392,7 +21389,7 @@
       <c r="L295" s="4"/>
       <c r="M295" s="4"/>
       <c r="N295" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O295" s="2"/>
       <c r="P295" s="3" t="s">
@@ -21422,7 +21419,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="296" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>44375</v>
       </c>
@@ -21487,7 +21484,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="297" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>44375</v>
       </c>
@@ -21495,7 +21492,7 @@
         <v>1021045759</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D297" s="4" t="s">
         <v>26</v>
@@ -21556,7 +21553,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="298" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>44375</v>
       </c>
@@ -21587,7 +21584,7 @@
       <c r="L298" s="4"/>
       <c r="M298" s="4"/>
       <c r="N298" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O298" s="2"/>
       <c r="P298" s="3" t="s">
@@ -21617,7 +21614,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="299" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>44375</v>
       </c>
@@ -21680,7 +21677,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="300" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>44376</v>
       </c>
@@ -21747,7 +21744,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="301" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>44376</v>
       </c>
@@ -21814,7 +21811,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="302" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>44376</v>
       </c>
@@ -21822,7 +21819,7 @@
         <v>1021046397</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D302" s="4" t="s">
         <v>26</v>
@@ -21877,7 +21874,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="303" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>44376</v>
       </c>
@@ -21914,7 +21911,7 @@
       <c r="L303" s="4"/>
       <c r="M303" s="4"/>
       <c r="N303" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O303" s="2"/>
       <c r="P303" s="3" t="s">
@@ -21944,7 +21941,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="304" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>44376</v>
       </c>
@@ -21981,7 +21978,7 @@
       <c r="L304" s="4"/>
       <c r="M304" s="4"/>
       <c r="N304" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O304" s="2"/>
       <c r="P304" s="3" t="s">
@@ -22011,7 +22008,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="305" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>44376</v>
       </c>
@@ -22019,7 +22016,7 @@
         <v>1021046346</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D305" s="4" t="s">
         <v>26</v>
@@ -22078,7 +22075,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="306" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>44376</v>
       </c>
@@ -22115,7 +22112,7 @@
       <c r="L306" s="4"/>
       <c r="M306" s="4"/>
       <c r="N306" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O306" s="2"/>
       <c r="P306" s="3" t="s">
@@ -22145,7 +22142,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="307" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>44376</v>
       </c>
@@ -22200,7 +22197,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="308" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>44376</v>
       </c>
@@ -22208,7 +22205,7 @@
         <v>1021046245</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D308" s="4" t="s">
         <v>26</v>
@@ -22267,7 +22264,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="309" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>44376</v>
       </c>
@@ -22334,7 +22331,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="310" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>44376</v>
       </c>
@@ -22397,7 +22394,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="311" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>44376</v>
       </c>
@@ -22464,7 +22461,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="312" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>44376</v>
       </c>
@@ -22501,7 +22498,7 @@
       <c r="L312" s="4"/>
       <c r="M312" s="4"/>
       <c r="N312" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O312" s="2"/>
       <c r="P312" s="3" t="s">
@@ -22531,7 +22528,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="313" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>44376</v>
       </c>
@@ -22539,7 +22536,7 @@
         <v>1021046346</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D313" s="4" t="s">
         <v>51</v>
@@ -22558,7 +22555,7 @@
       <c r="L313" s="4"/>
       <c r="M313" s="4"/>
       <c r="N313" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="O313" s="2"/>
       <c r="P313" s="3" t="s">
@@ -22588,7 +22585,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="314" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>44376</v>
       </c>
@@ -22619,7 +22616,7 @@
       <c r="L314" s="4"/>
       <c r="M314" s="4"/>
       <c r="N314" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="O314" s="2"/>
       <c r="P314" s="3" t="s">
@@ -22649,7 +22646,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="315" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>44376</v>
       </c>
@@ -22680,7 +22677,7 @@
       <c r="L315" s="4"/>
       <c r="M315" s="4"/>
       <c r="N315" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="O315" s="2"/>
       <c r="P315" s="3" t="s">
@@ -22710,7 +22707,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="316" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>44377</v>
       </c>
@@ -22747,7 +22744,7 @@
       <c r="L316" s="4"/>
       <c r="M316" s="4"/>
       <c r="N316" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="O316" s="2"/>
       <c r="P316" s="3" t="s">
@@ -22777,7 +22774,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="317" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>44377</v>
       </c>
@@ -22785,7 +22782,7 @@
         <v>1021046706</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D317" s="4" t="s">
         <v>26</v>
@@ -22844,7 +22841,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="318" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>44377</v>
       </c>
@@ -22879,7 +22876,7 @@
       </c>
       <c r="M318" s="4"/>
       <c r="N318" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="O318" s="2"/>
       <c r="P318" s="3" t="s">
@@ -22909,7 +22906,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="319" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>44377</v>
       </c>
@@ -22917,7 +22914,7 @@
         <v>1021045392</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D319" s="4" t="s">
         <v>26</v>
@@ -22976,7 +22973,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="320" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>44377</v>
       </c>
@@ -23013,7 +23010,7 @@
       <c r="L320" s="4"/>
       <c r="M320" s="4"/>
       <c r="N320" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O320" s="2"/>
       <c r="P320" s="3" t="s">
@@ -23043,7 +23040,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="321" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>44377</v>
       </c>
@@ -23110,7 +23107,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="322" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>44377</v>
       </c>
@@ -23147,7 +23144,7 @@
       <c r="L322" s="4"/>
       <c r="M322" s="4"/>
       <c r="N322" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="O322" s="2"/>
       <c r="P322" s="3" t="s">
@@ -23177,7 +23174,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="323" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>44377</v>
       </c>
@@ -23185,7 +23182,7 @@
         <v>1021045130</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D323" s="4" t="s">
         <v>26</v>
@@ -23214,7 +23211,7 @@
       <c r="L323" s="4"/>
       <c r="M323" s="4"/>
       <c r="N323" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O323" s="2"/>
       <c r="P323" s="3" t="s">
@@ -23244,7 +23241,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="324" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>44377</v>
       </c>
@@ -23309,7 +23306,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="325" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>44377</v>
       </c>
@@ -23317,7 +23314,7 @@
         <v>1021044419</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D325" s="4" t="s">
         <v>51</v>
@@ -23376,7 +23373,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="326" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>44377</v>
       </c>
@@ -23441,7 +23438,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="327" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>44377</v>
       </c>
@@ -23476,7 +23473,7 @@
       <c r="L327" s="4"/>
       <c r="M327" s="4"/>
       <c r="N327" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="O327" s="2"/>
       <c r="P327" s="3" t="s">
@@ -23506,7 +23503,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="328" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>44377</v>
       </c>
@@ -23537,7 +23534,7 @@
       <c r="L328" s="4"/>
       <c r="M328" s="4"/>
       <c r="N328" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="O328" s="2"/>
       <c r="P328" s="3" t="s">
@@ -23567,7 +23564,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="329" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>44377</v>
       </c>
@@ -23604,7 +23601,7 @@
       <c r="L329" s="4"/>
       <c r="M329" s="4"/>
       <c r="N329" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O329" s="2"/>
       <c r="P329" s="3" t="s">
@@ -23634,7 +23631,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="330" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A330" s="1"/>
       <c r="B330" s="2"/>
       <c r="C330" s="3"/>
@@ -23661,7 +23658,7 @@
       <c r="X330" s="3"/>
       <c r="Y330" s="3"/>
     </row>
-    <row r="331" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A331" s="1"/>
       <c r="B331" s="2"/>
       <c r="C331" s="3"/>
@@ -23688,7 +23685,7 @@
       <c r="X331" s="3"/>
       <c r="Y331" s="3"/>
     </row>
-    <row r="332" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A332" s="1"/>
       <c r="B332" s="2"/>
       <c r="C332" s="3"/>
@@ -23715,7 +23712,7 @@
       <c r="X332" s="3"/>
       <c r="Y332" s="3"/>
     </row>
-    <row r="333" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A333" s="1"/>
       <c r="B333" s="2"/>
       <c r="C333" s="3"/>
@@ -23742,7 +23739,7 @@
       <c r="X333" s="3"/>
       <c r="Y333" s="3"/>
     </row>
-    <row r="334" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A334" s="1"/>
       <c r="B334" s="2"/>
       <c r="C334" s="3"/>
@@ -23769,7 +23766,7 @@
       <c r="X334" s="3"/>
       <c r="Y334" s="3"/>
     </row>
-    <row r="335" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A335" s="1"/>
       <c r="B335" s="2"/>
       <c r="C335" s="3"/>
@@ -23796,7 +23793,7 @@
       <c r="X335" s="3"/>
       <c r="Y335" s="3"/>
     </row>
-    <row r="336" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A336" s="1"/>
       <c r="B336" s="2"/>
       <c r="C336" s="3"/>
@@ -23823,7 +23820,7 @@
       <c r="X336" s="3"/>
       <c r="Y336" s="3"/>
     </row>
-    <row r="337" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A337" s="1"/>
       <c r="B337" s="2"/>
       <c r="C337" s="3"/>
@@ -23850,7 +23847,7 @@
       <c r="X337" s="3"/>
       <c r="Y337" s="3"/>
     </row>
-    <row r="338" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A338" s="1"/>
       <c r="B338" s="2"/>
       <c r="C338" s="3"/>
@@ -23877,7 +23874,7 @@
       <c r="X338" s="3"/>
       <c r="Y338" s="3"/>
     </row>
-    <row r="339" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A339" s="1"/>
       <c r="B339" s="2"/>
       <c r="C339" s="3"/>
@@ -23904,7 +23901,7 @@
       <c r="X339" s="3"/>
       <c r="Y339" s="3"/>
     </row>
-    <row r="340" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A340" s="1"/>
       <c r="B340" s="2"/>
       <c r="C340" s="3"/>
@@ -23931,7 +23928,7 @@
       <c r="X340" s="3"/>
       <c r="Y340" s="3"/>
     </row>
-    <row r="341" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A341" s="1"/>
       <c r="B341" s="2"/>
       <c r="C341" s="3"/>
@@ -23958,7 +23955,7 @@
       <c r="X341" s="3"/>
       <c r="Y341" s="3"/>
     </row>
-    <row r="342" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A342" s="1"/>
       <c r="B342" s="2"/>
       <c r="C342" s="3"/>
@@ -23985,7 +23982,7 @@
       <c r="X342" s="3"/>
       <c r="Y342" s="3"/>
     </row>
-    <row r="343" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A343" s="1"/>
       <c r="B343" s="2"/>
       <c r="C343" s="3"/>
@@ -24012,7 +24009,7 @@
       <c r="X343" s="3"/>
       <c r="Y343" s="3"/>
     </row>
-    <row r="344" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A344" s="1"/>
       <c r="B344" s="2"/>
       <c r="C344" s="3"/>
@@ -24039,7 +24036,7 @@
       <c r="X344" s="3"/>
       <c r="Y344" s="3"/>
     </row>
-    <row r="345" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A345" s="1"/>
       <c r="B345" s="2"/>
       <c r="C345" s="3"/>
@@ -24066,7 +24063,7 @@
       <c r="X345" s="3"/>
       <c r="Y345" s="3"/>
     </row>
-    <row r="346" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A346" s="1"/>
       <c r="B346" s="2"/>
       <c r="C346" s="3"/>
@@ -24093,7 +24090,7 @@
       <c r="X346" s="3"/>
       <c r="Y346" s="3"/>
     </row>
-    <row r="347" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A347" s="1"/>
       <c r="B347" s="2"/>
       <c r="C347" s="3"/>
@@ -24120,7 +24117,7 @@
       <c r="X347" s="3"/>
       <c r="Y347" s="3"/>
     </row>
-    <row r="348" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A348" s="1"/>
       <c r="B348" s="2"/>
       <c r="C348" s="3"/>
@@ -24147,7 +24144,7 @@
       <c r="X348" s="3"/>
       <c r="Y348" s="3"/>
     </row>
-    <row r="349" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A349" s="1"/>
       <c r="B349" s="2"/>
       <c r="C349" s="3"/>
@@ -24174,7 +24171,7 @@
       <c r="X349" s="3"/>
       <c r="Y349" s="3"/>
     </row>
-    <row r="350" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A350" s="1"/>
       <c r="B350" s="2"/>
       <c r="C350" s="3"/>
@@ -24201,7 +24198,7 @@
       <c r="X350" s="3"/>
       <c r="Y350" s="3"/>
     </row>
-    <row r="351" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A351" s="1"/>
       <c r="B351" s="2"/>
       <c r="C351" s="3"/>
@@ -24228,7 +24225,7 @@
       <c r="X351" s="3"/>
       <c r="Y351" s="3"/>
     </row>
-    <row r="352" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A352" s="1"/>
       <c r="B352" s="2"/>
       <c r="C352" s="3"/>
@@ -24255,7 +24252,7 @@
       <c r="X352" s="3"/>
       <c r="Y352" s="3"/>
     </row>
-    <row r="353" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A353" s="1"/>
       <c r="B353" s="2"/>
       <c r="C353" s="3"/>
@@ -24282,7 +24279,7 @@
       <c r="X353" s="3"/>
       <c r="Y353" s="3"/>
     </row>
-    <row r="354" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A354" s="1"/>
       <c r="B354" s="2"/>
       <c r="C354" s="3"/>
@@ -24309,7 +24306,7 @@
       <c r="X354" s="3"/>
       <c r="Y354" s="3"/>
     </row>
-    <row r="355" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A355" s="1"/>
       <c r="B355" s="2"/>
       <c r="C355" s="3"/>
@@ -24336,7 +24333,7 @@
       <c r="X355" s="3"/>
       <c r="Y355" s="3"/>
     </row>
-    <row r="356" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A356" s="1"/>
       <c r="B356" s="2"/>
       <c r="C356" s="3"/>
@@ -24363,7 +24360,7 @@
       <c r="X356" s="3"/>
       <c r="Y356" s="3"/>
     </row>
-    <row r="357" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A357" s="1"/>
       <c r="B357" s="2"/>
       <c r="C357" s="3"/>
@@ -24390,7 +24387,7 @@
       <c r="X357" s="3"/>
       <c r="Y357" s="3"/>
     </row>
-    <row r="358" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A358" s="1"/>
       <c r="B358" s="2"/>
       <c r="C358" s="3"/>
@@ -24417,7 +24414,7 @@
       <c r="X358" s="3"/>
       <c r="Y358" s="3"/>
     </row>
-    <row r="359" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A359" s="1"/>
       <c r="B359" s="2"/>
       <c r="C359" s="3"/>
@@ -24444,7 +24441,7 @@
       <c r="X359" s="3"/>
       <c r="Y359" s="3"/>
     </row>
-    <row r="360" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A360" s="1"/>
       <c r="B360" s="2"/>
       <c r="C360" s="3"/>
